--- a/raw_data/20200818_saline/20200818_Sensor3_Test_34.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_34.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1050094C-C24A-4E14-9E47-7AFE10113D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>30258.883801</v>
       </c>
@@ -481,3307 +897,3307 @@
         <v>8.405246</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.860000</v>
+        <v>1149.8599999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-260.560000</v>
+        <v>-260.56</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>30269.313180</v>
+        <v>30269.313180000001</v>
       </c>
       <c r="G2" s="1">
-        <v>8.408143</v>
+        <v>8.4081430000000008</v>
       </c>
       <c r="H2" s="1">
-        <v>1170.920000</v>
+        <v>1170.92</v>
       </c>
       <c r="I2" s="1">
-        <v>-218.870000</v>
+        <v>-218.87</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>30280.080333</v>
+        <v>30280.080333000002</v>
       </c>
       <c r="L2" s="1">
-        <v>8.411133</v>
+        <v>8.4111329999999995</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.130000</v>
+        <v>1199.1300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.586000</v>
+        <v>-151.58600000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>30290.596547</v>
+        <v>30290.596547000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.414055</v>
+        <v>8.4140549999999994</v>
       </c>
       <c r="R2" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.394000</v>
+        <v>-129.39400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>30300.591889</v>
+        <v>30300.591888999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.416831</v>
+        <v>8.4168310000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>1214.170000</v>
+        <v>1214.17</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.129000</v>
+        <v>-108.129</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>30310.696884</v>
+        <v>30310.696884000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.419638</v>
+        <v>8.4196380000000008</v>
       </c>
       <c r="AB2" s="1">
-        <v>1221.540000</v>
+        <v>1221.54</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.929800</v>
+        <v>-90.9298</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>30320.957661</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.422488</v>
+        <v>8.4224879999999995</v>
       </c>
       <c r="AG2" s="1">
-        <v>1226.080000</v>
+        <v>1226.08</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.245600</v>
+        <v>-86.245599999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>30331.627560</v>
+        <v>30331.627560000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.425452</v>
+        <v>8.4254519999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1233.060000</v>
+        <v>1233.06</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.671500</v>
+        <v>-89.671499999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>30341.900204</v>
+        <v>30341.900204000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.428306</v>
+        <v>8.4283059999999992</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1240.920000</v>
+        <v>1240.92</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.557000</v>
+        <v>-101.557</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>30352.835500</v>
+        <v>30352.835500000001</v>
       </c>
       <c r="AU2" s="1">
         <v>8.431343</v>
       </c>
       <c r="AV2" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.871000</v>
+        <v>-120.871</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>30364.033679</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.434454</v>
+        <v>8.4344540000000006</v>
       </c>
       <c r="BA2" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.420000</v>
+        <v>-138.41999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>30374.938223</v>
+        <v>30374.938223000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.437483</v>
+        <v>8.4374830000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1299.080000</v>
+        <v>1299.08</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.649000</v>
+        <v>-220.649</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>30385.927585</v>
+        <v>30385.927585000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.440535</v>
+        <v>8.4405350000000006</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.090000</v>
+        <v>-358.09</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>30397.007878</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.443613</v>
+        <v>8.4436129999999991</v>
       </c>
       <c r="BP2" s="1">
-        <v>1482.210000</v>
+        <v>1482.21</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-582.538000</v>
+        <v>-582.53800000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>30407.750564</v>
+        <v>30407.750564000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.446597</v>
+        <v>8.4465970000000006</v>
       </c>
       <c r="BU2" s="1">
-        <v>1613.640000</v>
+        <v>1613.64</v>
       </c>
       <c r="BV2" s="1">
-        <v>-836.360000</v>
+        <v>-836.36</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>30418.722566</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.449645</v>
+        <v>8.4496450000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1766.740000</v>
+        <v>1766.74</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1113.010000</v>
+        <v>-1113.01</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>30429.706483</v>
+        <v>30429.706483000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.452696</v>
+        <v>8.4526959999999995</v>
       </c>
       <c r="CE2" s="1">
-        <v>2188.490000</v>
+        <v>2188.4899999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1783.310000</v>
+        <v>-1783.31</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>30259.273161</v>
+        <v>30259.273161000001</v>
       </c>
       <c r="B3" s="1">
-        <v>8.405354</v>
+        <v>8.4053540000000009</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.780000</v>
+        <v>1149.78</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.523000</v>
+        <v>-260.52300000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>30269.969178</v>
+        <v>30269.969177999999</v>
       </c>
       <c r="G3" s="1">
-        <v>8.408325</v>
+        <v>8.4083249999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.860000</v>
+        <v>1171.8599999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.810000</v>
+        <v>-218.81</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>30280.491052</v>
+        <v>30280.491052000001</v>
       </c>
       <c r="L3" s="1">
-        <v>8.411248</v>
+        <v>8.4112480000000005</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.090000</v>
+        <v>1199.0899999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.629000</v>
+        <v>-151.62899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>30291.020094</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.414172</v>
+        <v>8.4141720000000007</v>
       </c>
       <c r="R3" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.307000</v>
+        <v>-129.30699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>30300.939122</v>
       </c>
       <c r="V3" s="1">
-        <v>8.416928</v>
+        <v>8.4169280000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1214.110000</v>
+        <v>1214.1099999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.200000</v>
+        <v>-108.2</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>30311.077316</v>
+        <v>30311.077315999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.419744</v>
+        <v>8.4197439999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1221.630000</v>
+        <v>1221.6300000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.936000</v>
+        <v>-90.936000000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>30321.340038</v>
+        <v>30321.340037999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.422594</v>
+        <v>8.4225940000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1226.080000</v>
+        <v>1226.08</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.285600</v>
+        <v>-86.285600000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>30332.056600</v>
+        <v>30332.0566</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.425571</v>
+        <v>8.4255709999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>1233.060000</v>
+        <v>1233.06</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.716600</v>
+        <v>-89.7166</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>30342.315852</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.428421</v>
+        <v>8.4284210000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1240.970000</v>
+        <v>1240.97</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.543000</v>
+        <v>-101.54300000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>30353.273468</v>
+        <v>30353.273467999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.431465</v>
+        <v>8.4314649999999993</v>
       </c>
       <c r="AV3" s="1">
-        <v>1250.810000</v>
+        <v>1250.81</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.893000</v>
+        <v>-120.893</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>30364.393279</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.434554</v>
+        <v>8.4345540000000003</v>
       </c>
       <c r="BA3" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.394000</v>
+        <v>-138.39400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>30375.300341</v>
+        <v>30375.300340999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.437583</v>
+        <v>8.4375830000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1299.040000</v>
+        <v>1299.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.682000</v>
+        <v>-220.68199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>30386.304544</v>
+        <v>30386.304543999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.440640</v>
+        <v>8.4406400000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.135000</v>
+        <v>-358.13499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>30397.426337</v>
+        <v>30397.426337000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.443730</v>
+        <v>8.4437300000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1482.220000</v>
+        <v>1482.22</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-582.580000</v>
+        <v>-582.58000000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>30408.204404</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.446723</v>
+        <v>8.4467230000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1613.810000</v>
+        <v>1613.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-836.081000</v>
+        <v>-836.08100000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>30419.187812</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.449774</v>
+        <v>8.4497739999999997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1766.750000</v>
+        <v>1766.75</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1113.290000</v>
+        <v>-1113.29</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>30430.300182</v>
+        <v>30430.300181999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.452861</v>
+        <v>8.4528610000000004</v>
       </c>
       <c r="CE3" s="1">
-        <v>2186.780000</v>
+        <v>2186.7800000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1785.390000</v>
+        <v>-1785.39</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>30259.999799</v>
+        <v>30259.999799000001</v>
       </c>
       <c r="B4" s="1">
-        <v>8.405555</v>
+        <v>8.4055549999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.760000</v>
+        <v>1149.76</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.609000</v>
+        <v>-260.60899999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>30270.347833</v>
       </c>
       <c r="G4" s="1">
-        <v>8.408430</v>
+        <v>8.4084299999999992</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.530000</v>
+        <v>1171.53</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.046000</v>
+        <v>-219.04599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30280.836763</v>
+        <v>30280.836762999999</v>
       </c>
       <c r="L4" s="1">
-        <v>8.411344</v>
+        <v>8.4113439999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>1199.310000</v>
+        <v>1199.31</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.920000</v>
+        <v>-151.91999999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>30291.367391</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.414269</v>
+        <v>8.4142690000000009</v>
       </c>
       <c r="R4" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.315000</v>
+        <v>-129.315</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>30301.283810</v>
+        <v>30301.283810000001</v>
       </c>
       <c r="V4" s="1">
-        <v>8.417023</v>
+        <v>8.4170230000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>1214.240000</v>
+        <v>1214.24</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.195000</v>
+        <v>-108.19499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>30311.500438</v>
+        <v>30311.500437999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.419861</v>
+        <v>8.4198609999999992</v>
       </c>
       <c r="AB4" s="1">
-        <v>1221.460000</v>
+        <v>1221.46</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.677300</v>
+        <v>-90.677300000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>30321.762133</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.422712</v>
+        <v>8.4227120000000006</v>
       </c>
       <c r="AG4" s="1">
-        <v>1226.030000</v>
+        <v>1226.03</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.328600</v>
+        <v>-86.328599999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>30332.390440</v>
+        <v>30332.390439999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.425664</v>
+        <v>8.4256639999999994</v>
       </c>
       <c r="AL4" s="1">
-        <v>1233.040000</v>
+        <v>1233.04</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.658000</v>
+        <v>-89.658000000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>30342.657097</v>
+        <v>30342.657096999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.428516</v>
+        <v>8.4285160000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1240.920000</v>
+        <v>1240.92</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.564000</v>
+        <v>-101.56399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>30353.641004</v>
+        <v>30353.641004000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.431567</v>
+        <v>8.4315669999999994</v>
       </c>
       <c r="AV4" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.903000</v>
+        <v>-120.90300000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>30364.753372</v>
+        <v>30364.753371999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.434654</v>
+        <v>8.4346540000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.401000</v>
+        <v>-138.40100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>30376.001150</v>
+        <v>30376.00115</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.437778</v>
+        <v>8.4377779999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1299.040000</v>
+        <v>1299.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.688000</v>
+        <v>-220.68799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>30387.054991</v>
+        <v>30387.054991000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>8.440849</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.085000</v>
+        <v>-358.08499999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>30397.842513</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.443845</v>
+        <v>8.4438449999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1482.250000</v>
+        <v>1482.25</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-582.600000</v>
+        <v>-582.6</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>30408.631956</v>
+        <v>30408.631956000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.446842</v>
+        <v>8.4468420000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1613.990000</v>
+        <v>1613.99</v>
       </c>
       <c r="BV4" s="1">
-        <v>-836.106000</v>
+        <v>-836.10599999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>30419.646148</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.449902</v>
+        <v>8.4499019999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1766.790000</v>
+        <v>1766.79</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1113.230000</v>
+        <v>-1113.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>30431.153797</v>
+        <v>30431.153796999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.453098</v>
+        <v>8.4530980000000007</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.020000</v>
+        <v>2188.02</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1783.550000</v>
+        <v>-1783.55</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>30260.317276</v>
+        <v>30260.317276000002</v>
       </c>
       <c r="B5" s="1">
-        <v>8.405644</v>
+        <v>8.4056440000000006</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.876000</v>
+        <v>-260.87599999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>30270.691562</v>
       </c>
       <c r="G5" s="1">
-        <v>8.408525</v>
+        <v>8.4085249999999991</v>
       </c>
       <c r="H5" s="1">
-        <v>1171.410000</v>
+        <v>1171.4100000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.530000</v>
+        <v>-218.53</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>30281.183467</v>
+        <v>30281.183466999999</v>
       </c>
       <c r="L5" s="1">
-        <v>8.411440</v>
+        <v>8.4114400000000007</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.270000</v>
+        <v>1199.27</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.914000</v>
+        <v>-151.91399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>30291.719949</v>
+        <v>30291.719948999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.414367</v>
+        <v>8.4143670000000004</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.940000</v>
+        <v>1206.94</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.293000</v>
+        <v>-129.29300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>30301.711856</v>
+        <v>30301.711856000002</v>
       </c>
       <c r="V5" s="1">
-        <v>8.417142</v>
+        <v>8.4171420000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1214.180000</v>
+        <v>1214.18</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.191000</v>
+        <v>-108.191</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>30311.801507</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.419945</v>
+        <v>8.4199450000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1221.470000</v>
+        <v>1221.47</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.923200</v>
+        <v>-90.923199999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30322.027003</v>
+        <v>30322.027002999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.422785</v>
+        <v>8.4227849999999993</v>
       </c>
       <c r="AG5" s="1">
-        <v>1226.010000</v>
+        <v>1226.01</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.349400</v>
+        <v>-86.349400000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>30332.739591</v>
+        <v>30332.739591000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.425761</v>
+        <v>8.4257609999999996</v>
       </c>
       <c r="AL5" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.689900</v>
+        <v>-89.689899999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>30343.015247</v>
+        <v>30343.015246999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.428615</v>
+        <v>8.4286150000000006</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1240.970000</v>
+        <v>1240.97</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.571000</v>
+        <v>-101.571</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>30354.002586</v>
+        <v>30354.002585999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.431667</v>
+        <v>8.4316669999999991</v>
       </c>
       <c r="AV5" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.865000</v>
+        <v>-120.86499999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>30365.470587</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.434853</v>
+        <v>8.4348530000000004</v>
       </c>
       <c r="BA5" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.399000</v>
+        <v>-138.399</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>30376.382575</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.437884</v>
+        <v>8.4378840000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1299.030000</v>
+        <v>1299.03</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.686000</v>
+        <v>-220.68600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>30387.429471</v>
+        <v>30387.429470999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.440953</v>
+        <v>8.4409530000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.103000</v>
+        <v>-358.10300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>30398.237298</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.443955</v>
+        <v>8.4439550000000008</v>
       </c>
       <c r="BP5" s="1">
-        <v>1482.200000</v>
+        <v>1482.2</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-582.620000</v>
+        <v>-582.62</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>30409.047145</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.446958</v>
+        <v>8.4469580000000004</v>
       </c>
       <c r="BU5" s="1">
-        <v>1614.280000</v>
+        <v>1614.28</v>
       </c>
       <c r="BV5" s="1">
-        <v>-835.939000</v>
+        <v>-835.93899999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>30420.408467</v>
+        <v>30420.408467000001</v>
       </c>
       <c r="BY5" s="1">
         <v>8.450113</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1766.740000</v>
+        <v>1766.74</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1113.250000</v>
+        <v>-1113.25</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>30431.381462</v>
+        <v>30431.381462000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.453162</v>
+        <v>8.4531620000000007</v>
       </c>
       <c r="CE5" s="1">
-        <v>2188.330000</v>
+        <v>2188.33</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1783.720000</v>
+        <v>-1783.72</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>30260.660470</v>
+        <v>30260.660469999999</v>
       </c>
       <c r="B6" s="1">
-        <v>8.405739</v>
+        <v>8.4057390000000005</v>
       </c>
       <c r="C6" s="1">
-        <v>1150.050000</v>
+        <v>1150.05</v>
       </c>
       <c r="D6" s="1">
-        <v>-260.521000</v>
+        <v>-260.52100000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>30271.038761</v>
       </c>
       <c r="G6" s="1">
-        <v>8.408622</v>
+        <v>8.4086219999999994</v>
       </c>
       <c r="H6" s="1">
-        <v>1171.590000</v>
+        <v>1171.5899999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.263000</v>
+        <v>-219.26300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>30281.607516</v>
       </c>
       <c r="L6" s="1">
-        <v>8.411558</v>
+        <v>8.4115579999999994</v>
       </c>
       <c r="M6" s="1">
-        <v>1199.190000</v>
+        <v>1199.19</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.710000</v>
+        <v>-151.71</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>30292.159404</v>
+        <v>30292.159404000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.414489</v>
+        <v>8.4144889999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.940000</v>
+        <v>1206.94</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.357000</v>
+        <v>-129.357</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>30301.987632</v>
       </c>
       <c r="V6" s="1">
-        <v>8.417219</v>
+        <v>8.4172189999999993</v>
       </c>
       <c r="W6" s="1">
-        <v>1214.200000</v>
+        <v>1214.2</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.144000</v>
+        <v>-108.14400000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>30312.147188</v>
+        <v>30312.147187999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.420041</v>
+        <v>8.4200409999999994</v>
       </c>
       <c r="AB6" s="1">
-        <v>1221.580000</v>
+        <v>1221.58</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.677900</v>
+        <v>-90.677899999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>30322.367253</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.422880</v>
+        <v>8.4228799999999993</v>
       </c>
       <c r="AG6" s="1">
-        <v>1226.030000</v>
+        <v>1226.03</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.394000</v>
+        <v>-86.394000000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>30333.087286</v>
+        <v>30333.087286000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.425858</v>
+        <v>8.4258579999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.656800</v>
+        <v>-89.656800000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>30343.735897</v>
+        <v>30343.735896999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.428816</v>
+        <v>8.4288159999999994</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.559000</v>
+        <v>-101.559</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>30354.731706</v>
+        <v>30354.731705999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.431870</v>
+        <v>8.43187</v>
       </c>
       <c r="AV6" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.889000</v>
+        <v>-120.889</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>30365.831211</v>
+        <v>30365.831211000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.434953</v>
+        <v>8.4349530000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.383000</v>
+        <v>-138.38300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>30376.746141</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.437985</v>
+        <v>8.4379849999999994</v>
       </c>
       <c r="BF6" s="1">
-        <v>1299.060000</v>
+        <v>1299.06</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.675000</v>
+        <v>-220.67500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>30387.805934</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.441057</v>
+        <v>8.4410570000000007</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.107000</v>
+        <v>-358.10700000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>30398.969423</v>
+        <v>30398.969422999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.444158</v>
+        <v>8.4441579999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1482.270000</v>
+        <v>1482.27</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-582.576000</v>
+        <v>-582.57600000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>30409.621473</v>
+        <v>30409.621472999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.447117</v>
+        <v>8.4471170000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1614.290000</v>
+        <v>1614.29</v>
       </c>
       <c r="BV6" s="1">
-        <v>-836.071000</v>
+        <v>-836.07100000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>30420.525027</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.450146</v>
+        <v>8.4501460000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1766.920000</v>
+        <v>1766.92</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1113.120000</v>
+        <v>-1113.1199999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>30431.899779</v>
+        <v>30431.899778999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.453305</v>
+        <v>8.4533050000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>2186.210000</v>
+        <v>2186.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1784.180000</v>
+        <v>-1784.18</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>30261.090034</v>
+        <v>30261.090034000001</v>
       </c>
       <c r="B7" s="1">
-        <v>8.405858</v>
+        <v>8.4058580000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D7" s="1">
-        <v>-260.350000</v>
+        <v>-260.35000000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>30271.460857</v>
+        <v>30271.460856999998</v>
       </c>
       <c r="G7" s="1">
-        <v>8.408739</v>
+        <v>8.4087390000000006</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.020000</v>
+        <v>1172.02</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.277000</v>
+        <v>-219.27699999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>30281.884283</v>
+        <v>30281.884282999999</v>
       </c>
       <c r="L7" s="1">
-        <v>8.411635</v>
+        <v>8.4116350000000004</v>
       </c>
       <c r="M7" s="1">
-        <v>1199.010000</v>
+        <v>1199.01</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.686000</v>
+        <v>-151.68600000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>30292.426259</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.414563</v>
+        <v>8.4145629999999993</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.950000</v>
+        <v>1206.95</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.405000</v>
+        <v>-129.405</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>30302.331359</v>
       </c>
       <c r="V7" s="1">
-        <v>8.417314</v>
+        <v>8.4173139999999993</v>
       </c>
       <c r="W7" s="1">
-        <v>1214.160000</v>
+        <v>1214.1600000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.263000</v>
+        <v>-108.26300000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>30312.498600</v>
+        <v>30312.498599999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.420139</v>
+        <v>8.4201390000000007</v>
       </c>
       <c r="AB7" s="1">
-        <v>1221.500000</v>
+        <v>1221.5</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.885700</v>
+        <v>-90.8857</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>30322.709988</v>
+        <v>30322.709987999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.422975</v>
+        <v>8.4229749999999992</v>
       </c>
       <c r="AG7" s="1">
-        <v>1226.010000</v>
+        <v>1226.01</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.424300</v>
+        <v>-86.424300000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>30333.785686</v>
+        <v>30333.785685999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.426052</v>
+        <v>8.4260520000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>1233.040000</v>
+        <v>1233.04</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.667000</v>
+        <v>-89.667000000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>30344.097480</v>
+        <v>30344.09748</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.428916</v>
+        <v>8.4289159999999992</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.542000</v>
+        <v>-101.542</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>30355.121092</v>
+        <v>30355.121092000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.431978</v>
+        <v>8.4319780000000009</v>
       </c>
       <c r="AV7" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.875000</v>
+        <v>-120.875</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>30366.188833</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.435052</v>
+        <v>8.4350520000000007</v>
       </c>
       <c r="BA7" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.409000</v>
+        <v>-138.40899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>30377.418715</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.438172</v>
+        <v>8.4381719999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1299.040000</v>
+        <v>1299.04</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.651000</v>
+        <v>-220.65100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>30388.511247</v>
+        <v>30388.511246999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.441253</v>
+        <v>8.4412529999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.134000</v>
+        <v>-358.13400000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>30399.471343</v>
+        <v>30399.471343000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.444298</v>
+        <v>8.4442979999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1482.170000</v>
+        <v>1482.17</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-582.610000</v>
+        <v>-582.61</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>30409.880914</v>
+        <v>30409.880914000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.447189</v>
+        <v>8.4471889999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1614.540000</v>
+        <v>1614.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-836.158000</v>
+        <v>-836.15800000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>30420.951588</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.450264</v>
+        <v>8.4502640000000007</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1766.780000</v>
+        <v>1766.78</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1113.200000</v>
+        <v>-1113.2</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>30432.420581</v>
+        <v>30432.420580999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.453450</v>
+        <v>8.4534500000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2187.280000</v>
+        <v>2187.2800000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1786.140000</v>
+        <v>-1786.14</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>30261.360854</v>
+        <v>30261.360853999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.405934</v>
+        <v>8.4059340000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.680000</v>
+        <v>1149.68</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.815000</v>
+        <v>-260.815</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>30271.741591</v>
+        <v>30271.741591000002</v>
       </c>
       <c r="G8" s="1">
-        <v>8.408817</v>
+        <v>8.4088170000000009</v>
       </c>
       <c r="H8" s="1">
-        <v>1171.270000</v>
+        <v>1171.27</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.624000</v>
+        <v>-218.624</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>30282.232473</v>
       </c>
       <c r="L8" s="1">
-        <v>8.411731</v>
+        <v>8.4117309999999996</v>
       </c>
       <c r="M8" s="1">
-        <v>1199.300000</v>
+        <v>1199.3</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.407000</v>
+        <v>-151.40700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>30292.777420</v>
+        <v>30292.777419999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.414660</v>
+        <v>8.4146599999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.890000</v>
+        <v>1206.8900000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.357000</v>
+        <v>-129.357</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>30302.674591</v>
+        <v>30302.674590999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.417410</v>
+        <v>8.4174100000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>1214.170000</v>
+        <v>1214.17</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.179000</v>
+        <v>-108.179</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>30313.184817</v>
+        <v>30313.184817000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.420329</v>
+        <v>8.4203290000000006</v>
       </c>
       <c r="AB8" s="1">
-        <v>1221.410000</v>
+        <v>1221.4100000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.974600</v>
+        <v>-90.974599999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>30323.399427</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.423167</v>
+        <v>8.4231669999999994</v>
       </c>
       <c r="AG8" s="1">
-        <v>1226.040000</v>
+        <v>1226.04</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.412100</v>
+        <v>-86.412099999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>30334.133845</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.426148</v>
+        <v>8.4261479999999995</v>
       </c>
       <c r="AL8" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.670900</v>
+        <v>-89.670900000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>30344.455591</v>
+        <v>30344.455591000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.429015</v>
+        <v>8.4290149999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1240.980000</v>
+        <v>1240.98</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.553000</v>
+        <v>-101.553</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>30355.485130</v>
+        <v>30355.485130000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.432079</v>
+        <v>8.4320789999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.897000</v>
+        <v>-120.89700000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>30366.857434</v>
+        <v>30366.857434000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>8.435238</v>
       </c>
       <c r="BA8" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.386000</v>
+        <v>-138.386</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>30377.856715</v>
+        <v>30377.856715000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.438294</v>
+        <v>8.4382940000000008</v>
       </c>
       <c r="BF8" s="1">
-        <v>1299.070000</v>
+        <v>1299.07</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.666000</v>
+        <v>-220.666</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>30388.957187</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.441377</v>
+        <v>8.4413769999999992</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.140000</v>
+        <v>-358.14</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>30399.890481</v>
+        <v>30399.890480999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.444414</v>
+        <v>8.4444140000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1482.220000</v>
+        <v>1482.22</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-582.599000</v>
+        <v>-582.59900000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>30410.297522</v>
+        <v>30410.297522000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.447305</v>
+        <v>8.4473050000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1614.510000</v>
+        <v>1614.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-836.401000</v>
+        <v>-836.40099999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>30421.372195</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.450381</v>
+        <v>8.4503810000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1766.790000</v>
+        <v>1766.79</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1113.170000</v>
+        <v>-1113.17</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>30432.935922</v>
+        <v>30432.935922000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.453593</v>
+        <v>8.4535929999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>2188.880000</v>
+        <v>2188.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1785.800000</v>
+        <v>-1785.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>30261.701572</v>
+        <v>30261.701572000002</v>
       </c>
       <c r="B9" s="1">
-        <v>8.406028</v>
+        <v>8.4060279999999992</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.580000</v>
+        <v>1149.58</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.784000</v>
+        <v>-260.78399999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>30272.085654</v>
+        <v>30272.085653999999</v>
       </c>
       <c r="G9" s="1">
-        <v>8.408913</v>
+        <v>8.4089130000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.110000</v>
+        <v>1172.1099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.268000</v>
+        <v>-218.268</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>30282.576202</v>
       </c>
       <c r="L9" s="1">
-        <v>8.411827</v>
+        <v>8.4118270000000006</v>
       </c>
       <c r="M9" s="1">
-        <v>1199.450000</v>
+        <v>1199.45</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.684000</v>
+        <v>-151.684</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>30293.342860</v>
+        <v>30293.342860000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.414817</v>
+        <v>8.4148169999999993</v>
       </c>
       <c r="R9" s="1">
-        <v>1206.860000</v>
+        <v>1206.8599999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.343000</v>
+        <v>-129.34299999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>30303.362077</v>
+        <v>30303.362077000002</v>
       </c>
       <c r="V9" s="1">
-        <v>8.417601</v>
+        <v>8.4176009999999994</v>
       </c>
       <c r="W9" s="1">
-        <v>1214.140000</v>
+        <v>1214.1400000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.112000</v>
+        <v>-108.11199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>30313.543920</v>
+        <v>30313.54392</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.420429</v>
+        <v>8.4204290000000004</v>
       </c>
       <c r="AB9" s="1">
-        <v>1221.540000</v>
+        <v>1221.54</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.008100</v>
+        <v>-91.008099999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>30323.741666</v>
+        <v>30323.741666000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.423262</v>
+        <v>8.4232619999999994</v>
       </c>
       <c r="AG9" s="1">
-        <v>1226.050000</v>
+        <v>1226.05</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.462800</v>
+        <v>-86.462800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>30334.482065</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.426245</v>
+        <v>8.4262449999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1233.060000</v>
+        <v>1233.06</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.671500</v>
+        <v>-89.671499999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>30345.129040</v>
+        <v>30345.12904</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.429203</v>
+        <v>8.4292029999999993</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1240.960000</v>
+        <v>1240.96</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.549000</v>
+        <v>-101.54900000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>30356.163160</v>
+        <v>30356.16316</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.432268</v>
+        <v>8.4322680000000005</v>
       </c>
       <c r="AV9" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.878000</v>
+        <v>-120.878</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>30367.290409</v>
+        <v>30367.290409000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.435358</v>
+        <v>8.4353580000000008</v>
       </c>
       <c r="BA9" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.405000</v>
+        <v>-138.405</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>30378.217275</v>
+        <v>30378.217274999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.438394</v>
+        <v>8.4383940000000006</v>
       </c>
       <c r="BF9" s="1">
-        <v>1299.050000</v>
+        <v>1299.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.680000</v>
+        <v>-220.68</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>30389.360396</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.441489</v>
+        <v>8.4414890000000007</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.101000</v>
+        <v>-358.101</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>30400.288781</v>
+        <v>30400.288780999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.444525</v>
+        <v>8.4445250000000005</v>
       </c>
       <c r="BP9" s="1">
-        <v>1482.190000</v>
+        <v>1482.19</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-582.579000</v>
+        <v>-582.57899999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>30410.734032</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.447426</v>
+        <v>8.4474260000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1614.680000</v>
+        <v>1614.68</v>
       </c>
       <c r="BV9" s="1">
-        <v>-836.565000</v>
+        <v>-836.56500000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>30421.817602</v>
+        <v>30421.817601999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.450505</v>
+        <v>8.4505049999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1766.810000</v>
+        <v>1766.81</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1113.120000</v>
+        <v>-1113.1199999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>30433.455235</v>
+        <v>30433.455235000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.453738</v>
+        <v>8.4537379999999995</v>
       </c>
       <c r="CE9" s="1">
-        <v>2188.800000</v>
+        <v>2188.8000000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1785.620000</v>
+        <v>-1785.62</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>30262.046788</v>
       </c>
       <c r="B10" s="1">
-        <v>8.406124</v>
+        <v>8.4061240000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.740000</v>
+        <v>1149.74</v>
       </c>
       <c r="D10" s="1">
-        <v>-260.574000</v>
+        <v>-260.57400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>30272.428550</v>
+        <v>30272.428550000001</v>
       </c>
       <c r="G10" s="1">
         <v>8.409008</v>
       </c>
       <c r="H10" s="1">
-        <v>1171.620000</v>
+        <v>1171.6199999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.546000</v>
+        <v>-218.54599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>30283.267941</v>
+        <v>30283.267940999998</v>
       </c>
       <c r="L10" s="1">
-        <v>8.412019</v>
+        <v>8.4120190000000008</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.110000</v>
+        <v>1199.1099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.669000</v>
+        <v>-151.66900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>30293.474335</v>
+        <v>30293.474334999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.414854</v>
+        <v>8.4148540000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1206.910000</v>
+        <v>1206.9100000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.287000</v>
+        <v>-129.28700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>30303.706269</v>
+        <v>30303.706268999998</v>
       </c>
       <c r="V10" s="1">
-        <v>8.417696</v>
+        <v>8.4176959999999994</v>
       </c>
       <c r="W10" s="1">
-        <v>1214.160000</v>
+        <v>1214.1600000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.224000</v>
+        <v>-108.224</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>30313.891120</v>
+        <v>30313.89112</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.420525</v>
+        <v>8.4205249999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>1221.490000</v>
+        <v>1221.49</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.799200</v>
+        <v>-90.799199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>30324.090878</v>
+        <v>30324.090877999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.423359</v>
+        <v>8.4233589999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>1225.980000</v>
+        <v>1225.98</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.465400</v>
+        <v>-86.465400000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>30335.136260</v>
+        <v>30335.136259999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.426427</v>
+        <v>8.4264270000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.644700</v>
+        <v>-89.6447</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>30345.562478</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.429323</v>
+        <v>8.4293230000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1240.950000</v>
+        <v>1240.95</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.544000</v>
+        <v>-101.544</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>30356.613063</v>
+        <v>30356.613063000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.432393</v>
+        <v>8.4323929999999994</v>
       </c>
       <c r="AV10" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.907000</v>
+        <v>-120.907</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>30367.648554</v>
+        <v>30367.648553999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.435458</v>
+        <v>8.4354580000000006</v>
       </c>
       <c r="BA10" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.384000</v>
+        <v>-138.38399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>30378.576876</v>
+        <v>30378.576875999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.438494</v>
+        <v>8.4384940000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1299.030000</v>
+        <v>1299.03</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.677000</v>
+        <v>-220.67699999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>30389.735868</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.441593</v>
+        <v>8.4415929999999992</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.111000</v>
+        <v>-358.11099999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>30400.711341</v>
+        <v>30400.711340999998</v>
       </c>
       <c r="BO10" s="1">
         <v>8.444642</v>
       </c>
       <c r="BP10" s="1">
-        <v>1482.200000</v>
+        <v>1482.2</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-582.572000</v>
+        <v>-582.572</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>30411.148688</v>
+        <v>30411.148688000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.447541</v>
+        <v>8.4475409999999993</v>
       </c>
       <c r="BU10" s="1">
-        <v>1614.660000</v>
+        <v>1614.66</v>
       </c>
       <c r="BV10" s="1">
-        <v>-836.703000</v>
+        <v>-836.70299999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>30422.239006</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.450622</v>
+        <v>8.4506219999999992</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1766.780000</v>
+        <v>1766.78</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1113.150000</v>
+        <v>-1113.1500000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>30434.006289</v>
+        <v>30434.006289000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.453891</v>
+        <v>8.4538910000000005</v>
       </c>
       <c r="CE10" s="1">
-        <v>2187.810000</v>
+        <v>2187.81</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1786.350000</v>
+        <v>-1786.35</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>30262.726307</v>
+        <v>30262.726307000001</v>
       </c>
       <c r="B11" s="1">
-        <v>8.406313</v>
+        <v>8.4063130000000008</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D11" s="1">
-        <v>-260.585000</v>
+        <v>-260.58499999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>30273.117990</v>
+        <v>30273.117989999999</v>
       </c>
       <c r="G11" s="1">
-        <v>8.409199</v>
+        <v>8.4091989999999992</v>
       </c>
       <c r="H11" s="1">
-        <v>1171.810000</v>
+        <v>1171.81</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.199000</v>
+        <v>-218.19900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>30283.611352</v>
       </c>
       <c r="L11" s="1">
-        <v>8.412114</v>
+        <v>8.4121140000000008</v>
       </c>
       <c r="M11" s="1">
-        <v>1199.470000</v>
+        <v>1199.47</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.597000</v>
+        <v>-151.59700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>30293.820010</v>
+        <v>30293.820009999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.414950</v>
+        <v>8.4149499999999993</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.970000</v>
+        <v>1206.97</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.330000</v>
+        <v>-129.33000000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>30304.049017</v>
+        <v>30304.049017000001</v>
       </c>
       <c r="V11" s="1">
-        <v>8.417791</v>
+        <v>8.4177909999999994</v>
       </c>
       <c r="W11" s="1">
-        <v>1214.080000</v>
+        <v>1214.08</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.226000</v>
+        <v>-108.226</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>30314.553311</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.420709</v>
+        <v>8.4207090000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.815700</v>
+        <v>-90.815700000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>30324.740114</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.423539</v>
+        <v>8.4235389999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1226.070000</v>
+        <v>1226.07</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.513700</v>
+        <v>-86.5137</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>30335.528627</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.426536</v>
+        <v>8.4265360000000005</v>
       </c>
       <c r="AL11" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.687000</v>
+        <v>-89.686999999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>30345.924245</v>
+        <v>30345.924244999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.429423</v>
+        <v>8.4294229999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1240.950000</v>
+        <v>1240.95</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.567000</v>
+        <v>-101.56699999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>30356.974150</v>
+        <v>30356.974149999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.432493</v>
+        <v>8.4324929999999991</v>
       </c>
       <c r="AV11" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.894000</v>
+        <v>-120.89400000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>30368.012088</v>
+        <v>30368.012087999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.435559</v>
+        <v>8.4355589999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.419000</v>
+        <v>-138.41900000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>30379.000986</v>
+        <v>30379.000985999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.438611</v>
+        <v>8.4386109999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1299.070000</v>
+        <v>1299.07</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.699000</v>
+        <v>-220.69900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>30390.169867</v>
+        <v>30390.169867000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.441714</v>
+        <v>8.4417139999999993</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.119000</v>
+        <v>-358.11900000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>30401.106156</v>
+        <v>30401.106156000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.444752</v>
+        <v>8.4447519999999994</v>
       </c>
       <c r="BP11" s="1">
-        <v>1482.240000</v>
+        <v>1482.24</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-582.598000</v>
+        <v>-582.59799999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>30411.579215</v>
+        <v>30411.579215000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.447661</v>
+        <v>8.4476610000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1614.620000</v>
+        <v>1614.62</v>
       </c>
       <c r="BV11" s="1">
-        <v>-836.878000</v>
+        <v>-836.87800000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>30422.663814</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.450740</v>
+        <v>8.4507399999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1766.690000</v>
+        <v>1766.69</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1113.210000</v>
+        <v>-1113.21</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>30434.534528</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.454037</v>
+        <v>8.4540369999999996</v>
       </c>
       <c r="CE11" s="1">
-        <v>2189.790000</v>
+        <v>2189.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1785.370000</v>
+        <v>-1785.37</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>30263.069882</v>
       </c>
       <c r="B12" s="1">
-        <v>8.406408</v>
+        <v>8.4064080000000008</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.760000</v>
+        <v>1149.76</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.525000</v>
+        <v>-260.52499999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>30273.466677</v>
       </c>
       <c r="G12" s="1">
-        <v>8.409296</v>
+        <v>8.4092959999999994</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.770000</v>
+        <v>1171.77</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.189000</v>
+        <v>-219.18899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>30283.960535</v>
+        <v>30283.960534999998</v>
       </c>
       <c r="L12" s="1">
-        <v>8.412211</v>
+        <v>8.4122109999999992</v>
       </c>
       <c r="M12" s="1">
-        <v>1199.120000</v>
+        <v>1199.1199999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.647000</v>
+        <v>-151.64699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>30294.482665</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.415134</v>
+        <v>8.4151340000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.890000</v>
+        <v>1206.8900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.384000</v>
+        <v>-129.38399999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>30304.697276</v>
+        <v>30304.697275999999</v>
       </c>
       <c r="V12" s="1">
-        <v>8.417971</v>
+        <v>8.4179709999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>1214.100000</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.203000</v>
+        <v>-108.203</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>30314.938213</v>
+        <v>30314.938213000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.420816</v>
+        <v>8.4208160000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>1221.500000</v>
+        <v>1221.5</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.872400</v>
+        <v>-90.872399999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>30325.123036</v>
+        <v>30325.123036000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.423645</v>
+        <v>8.4236450000000005</v>
       </c>
       <c r="AG12" s="1">
-        <v>1226.010000</v>
+        <v>1226.01</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.456200</v>
+        <v>-86.456199999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>30335.880026</v>
+        <v>30335.880025999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.426633</v>
+        <v>8.4266330000000007</v>
       </c>
       <c r="AL12" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.693200</v>
+        <v>-89.693200000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>30346.284837</v>
+        <v>30346.284836999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.429524</v>
+        <v>8.4295240000000007</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.564000</v>
+        <v>-101.56399999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>30357.342151</v>
+        <v>30357.342151000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.432595</v>
+        <v>8.4325949999999992</v>
       </c>
       <c r="AV12" s="1">
-        <v>1250.810000</v>
+        <v>1250.81</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.868000</v>
+        <v>-120.86799999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>30368.438684</v>
+        <v>30368.438684000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.435677</v>
+        <v>8.4356770000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.400000</v>
+        <v>-138.4</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>30379.299087</v>
+        <v>30379.299086999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.438694</v>
+        <v>8.4386939999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1299.050000</v>
+        <v>1299.05</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.675000</v>
+        <v>-220.67500000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>30390.508397</v>
+        <v>30390.508397000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>8.441808</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.099000</v>
+        <v>-358.09899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>30401.524781</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.444868</v>
+        <v>8.4448679999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1482.240000</v>
+        <v>1482.24</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-582.574000</v>
+        <v>-582.57399999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>30411.989910</v>
+        <v>30411.98991</v>
       </c>
       <c r="BT12" s="1">
         <v>8.447775</v>
       </c>
       <c r="BU12" s="1">
-        <v>1614.410000</v>
+        <v>1614.41</v>
       </c>
       <c r="BV12" s="1">
-        <v>-836.958000</v>
+        <v>-836.95799999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>30423.110176</v>
+        <v>30423.110175999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.450864</v>
+        <v>8.4508639999999993</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1766.780000</v>
+        <v>1766.78</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1113.340000</v>
+        <v>-1113.3399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>30435.051887</v>
+        <v>30435.051887000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.454181</v>
+        <v>8.4541810000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>2187.840000</v>
+        <v>2187.84</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1784.080000</v>
+        <v>-1784.08</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>30263.412274</v>
+        <v>30263.412273999998</v>
       </c>
       <c r="B13" s="1">
-        <v>8.406503</v>
+        <v>8.4065030000000007</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.580000</v>
+        <v>1149.58</v>
       </c>
       <c r="D13" s="1">
-        <v>-260.749000</v>
+        <v>-260.74900000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>30273.816357</v>
       </c>
       <c r="G13" s="1">
-        <v>8.409393</v>
+        <v>8.4093929999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1171.070000</v>
+        <v>1171.07</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.561000</v>
+        <v>-218.56100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>30284.622231</v>
+        <v>30284.622231000001</v>
       </c>
       <c r="L13" s="1">
-        <v>8.412395</v>
+        <v>8.4123950000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.930000</v>
+        <v>1198.93</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.638000</v>
+        <v>-151.63800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>30294.864617</v>
+        <v>30294.864616999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.415240</v>
+        <v>8.4152400000000007</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.910000</v>
+        <v>1206.9100000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.348000</v>
+        <v>-129.34800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>30305.078699</v>
+        <v>30305.078699000002</v>
       </c>
       <c r="V13" s="1">
-        <v>8.418077</v>
+        <v>8.4180770000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.178000</v>
+        <v>-108.178</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>30315.287856</v>
+        <v>30315.287855999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.420913</v>
+        <v>8.4209130000000005</v>
       </c>
       <c r="AB13" s="1">
-        <v>1221.310000</v>
+        <v>1221.31</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.726500</v>
+        <v>-90.726500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>30325.461792</v>
+        <v>30325.461791999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.423739</v>
+        <v>8.4237389999999994</v>
       </c>
       <c r="AG13" s="1">
-        <v>1226.200000</v>
+        <v>1226.2</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.512200</v>
+        <v>-86.512200000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>30336.224020</v>
+        <v>30336.224020000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.426729</v>
+        <v>8.4267289999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.664800</v>
+        <v>-89.6648</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>30346.703498</v>
+        <v>30346.703497999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.429640</v>
+        <v>8.4296399999999991</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1240.960000</v>
+        <v>1240.96</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.556000</v>
+        <v>-101.556</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>30357.759783</v>
+        <v>30357.759783000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.432711</v>
+        <v>8.4327109999999994</v>
       </c>
       <c r="AV13" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.877000</v>
+        <v>-120.877</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>30368.724871</v>
+        <v>30368.724870999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.435757</v>
+        <v>8.4357570000000006</v>
       </c>
       <c r="BA13" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.413000</v>
+        <v>-138.41300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>30379.662153</v>
+        <v>30379.662153000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.438795</v>
+        <v>8.4387950000000007</v>
       </c>
       <c r="BF13" s="1">
-        <v>1299.030000</v>
+        <v>1299.03</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.682000</v>
+        <v>-220.68199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>30390.887579</v>
+        <v>30390.887578999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.441913</v>
+        <v>8.4419129999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.112000</v>
+        <v>-358.11200000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>30401.924556</v>
+        <v>30401.924556000002</v>
       </c>
       <c r="BO13" s="1">
         <v>8.444979</v>
       </c>
       <c r="BP13" s="1">
-        <v>1482.230000</v>
+        <v>1482.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-582.608000</v>
+        <v>-582.60799999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>30412.421390</v>
+        <v>30412.42139</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.447895</v>
+        <v>8.4478950000000008</v>
       </c>
       <c r="BU13" s="1">
-        <v>1614.310000</v>
+        <v>1614.31</v>
       </c>
       <c r="BV13" s="1">
-        <v>-837.204000</v>
+        <v>-837.20399999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>30423.543220</v>
+        <v>30423.54322</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.450984</v>
+        <v>8.4509840000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1766.920000</v>
+        <v>1766.92</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1113.180000</v>
+        <v>-1113.18</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>30435.570175</v>
+        <v>30435.570175000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.454325</v>
+        <v>8.4543250000000008</v>
       </c>
       <c r="CE13" s="1">
-        <v>2186.610000</v>
+        <v>2186.61</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1784.740000</v>
+        <v>-1784.74</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>30264.063554</v>
       </c>
       <c r="B14" s="1">
-        <v>8.406684</v>
+        <v>8.4066840000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>1150.050000</v>
+        <v>1150.05</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.636000</v>
+        <v>-260.63600000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>30274.475540</v>
+        <v>30274.475539999999</v>
       </c>
       <c r="G14" s="1">
-        <v>8.409577</v>
+        <v>8.4095770000000005</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.680000</v>
+        <v>1171.68</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.921000</v>
+        <v>-218.92099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>30284.998166</v>
+        <v>30284.998166000001</v>
       </c>
       <c r="L14" s="1">
-        <v>8.412499</v>
+        <v>8.4124990000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.859000</v>
+        <v>-151.85900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>30295.215257</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.415338</v>
+        <v>8.4153380000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.900000</v>
+        <v>1206.9000000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.368000</v>
+        <v>-129.36799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>30305.422952</v>
+        <v>30305.422952000001</v>
       </c>
       <c r="V14" s="1">
-        <v>8.418173</v>
+        <v>8.4181729999999995</v>
       </c>
       <c r="W14" s="1">
-        <v>1214.180000</v>
+        <v>1214.18</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.222000</v>
+        <v>-108.22199999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>30315.634090</v>
+        <v>30315.63409</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.421009</v>
+        <v>8.4210089999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1221.480000</v>
+        <v>1221.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.893000</v>
+        <v>-90.893000000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>30326.023278</v>
+        <v>30326.023278000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.423895</v>
+        <v>8.4238949999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1225.990000</v>
+        <v>1225.99</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.340500</v>
+        <v>-86.340500000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>30336.645090</v>
+        <v>30336.645090000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.426846</v>
+        <v>8.4268459999999994</v>
       </c>
       <c r="AL14" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.680600</v>
+        <v>-89.680599999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>30347.003076</v>
+        <v>30347.003076000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.429723</v>
+        <v>8.4297229999999992</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1240.930000</v>
+        <v>1240.93</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.563000</v>
+        <v>-101.563</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>30358.071270</v>
+        <v>30358.07127</v>
       </c>
       <c r="AU14" s="1">
         <v>8.432798</v>
       </c>
       <c r="AV14" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.893000</v>
+        <v>-120.893</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>30369.090920</v>
+        <v>30369.090919999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.435859</v>
+        <v>8.4358590000000007</v>
       </c>
       <c r="BA14" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.400000</v>
+        <v>-138.4</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>30380.020767</v>
+        <v>30380.020767000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.438895</v>
+        <v>8.4388950000000005</v>
       </c>
       <c r="BF14" s="1">
-        <v>1299.070000</v>
+        <v>1299.07</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.686000</v>
+        <v>-220.68600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>30391.264570</v>
+        <v>30391.264569999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.442018</v>
+        <v>8.4420179999999991</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.128000</v>
+        <v>-358.12799999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>30402.349165</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.445097</v>
+        <v>8.4450970000000005</v>
       </c>
       <c r="BP14" s="1">
-        <v>1482.260000</v>
+        <v>1482.26</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-582.638000</v>
+        <v>-582.63800000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>30412.849933</v>
+        <v>30412.849933000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.448014</v>
+        <v>8.4480140000000006</v>
       </c>
       <c r="BU14" s="1">
-        <v>1614.060000</v>
+        <v>1614.06</v>
       </c>
       <c r="BV14" s="1">
-        <v>-837.168000</v>
+        <v>-837.16800000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>30423.952878</v>
@@ -3790,619 +4206,619 @@
         <v>8.451098</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1766.880000</v>
+        <v>1766.88</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1113.190000</v>
+        <v>-1113.19</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>30436.090014</v>
+        <v>30436.090014000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.454469</v>
+        <v>8.4544689999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>2186.890000</v>
+        <v>2186.89</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1784.650000</v>
+        <v>-1784.65</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>30264.436513</v>
+        <v>30264.436513000001</v>
       </c>
       <c r="B15" s="1">
-        <v>8.406788</v>
+        <v>8.4067880000000006</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.770000</v>
+        <v>1149.77</v>
       </c>
       <c r="D15" s="1">
-        <v>-260.777000</v>
+        <v>-260.77699999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>30274.850019</v>
+        <v>30274.850019000001</v>
       </c>
       <c r="G15" s="1">
-        <v>8.409681</v>
+        <v>8.4096810000000009</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.960000</v>
+        <v>1171.96</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.238000</v>
+        <v>-218.238</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>30285.342885</v>
+        <v>30285.342884999998</v>
       </c>
       <c r="L15" s="1">
-        <v>8.412595</v>
+        <v>8.4125949999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1199.160000</v>
+        <v>1199.1600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.765000</v>
+        <v>-151.76499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>30295.564440</v>
+        <v>30295.564439999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.415435</v>
+        <v>8.4154350000000004</v>
       </c>
       <c r="R15" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.274000</v>
+        <v>-129.274</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>30305.773628</v>
+        <v>30305.773627999999</v>
       </c>
       <c r="V15" s="1">
-        <v>8.418270</v>
+        <v>8.4182699999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1214.150000</v>
+        <v>1214.1500000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>30316.051197</v>
+        <v>30316.051197000001</v>
       </c>
       <c r="AA15" s="1">
         <v>8.421125</v>
       </c>
       <c r="AB15" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.905800</v>
+        <v>-90.905799999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>30326.722165</v>
+        <v>30326.722164999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.424089</v>
+        <v>8.4240890000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>1225.960000</v>
+        <v>1225.96</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.409500</v>
+        <v>-86.409499999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>30336.935249</v>
+        <v>30336.935248999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.426926</v>
+        <v>8.4269259999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1233.050000</v>
+        <v>1233.05</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.655000</v>
+        <v>-89.655000000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>30347.361651</v>
+        <v>30347.361650999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.429823</v>
+        <v>8.4298230000000007</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.550000</v>
+        <v>-101.55</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>30358.414005</v>
+        <v>30358.414004999999</v>
       </c>
       <c r="AU15" s="1">
         <v>8.432893</v>
       </c>
       <c r="AV15" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.890000</v>
+        <v>-120.89</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>30369.444536</v>
+        <v>30369.444535999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.435957</v>
+        <v>8.4359570000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.413000</v>
+        <v>-138.41300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>30380.746871</v>
+        <v>30380.746870999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.439096</v>
+        <v>8.4390959999999993</v>
       </c>
       <c r="BF15" s="1">
-        <v>1299.030000</v>
+        <v>1299.03</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.682000</v>
+        <v>-220.68199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>30392.014490</v>
+        <v>30392.014490000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.442226</v>
+        <v>8.4422259999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.120000</v>
+        <v>-358.12</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>30402.743482</v>
+        <v>30402.743482000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.445207</v>
+        <v>8.4452069999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1482.230000</v>
+        <v>1482.23</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-582.594000</v>
+        <v>-582.59400000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>30413.257645</v>
+        <v>30413.257645000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.448127</v>
+        <v>8.4481269999999995</v>
       </c>
       <c r="BU15" s="1">
-        <v>1613.770000</v>
+        <v>1613.77</v>
       </c>
       <c r="BV15" s="1">
-        <v>-837.086000</v>
+        <v>-837.08600000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>30424.386909</v>
+        <v>30424.386909000001</v>
       </c>
       <c r="BY15" s="1">
         <v>8.451219</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1766.850000</v>
+        <v>1766.85</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1113.240000</v>
+        <v>-1113.24</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>30436.954176</v>
+        <v>30436.954175999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.454709</v>
+        <v>8.4547089999999994</v>
       </c>
       <c r="CE15" s="1">
-        <v>2188.820000</v>
+        <v>2188.8200000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1783.830000</v>
+        <v>-1783.83</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>30264.781265</v>
+        <v>30264.781265000001</v>
       </c>
       <c r="B16" s="1">
-        <v>8.406884</v>
+        <v>8.4068839999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.830000</v>
+        <v>1149.83</v>
       </c>
       <c r="D16" s="1">
-        <v>-260.625000</v>
+        <v>-260.625</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>30275.194242</v>
+        <v>30275.194242000001</v>
       </c>
       <c r="G16" s="1">
-        <v>8.409776</v>
+        <v>8.4097760000000008</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.200000</v>
+        <v>1171.2</v>
       </c>
       <c r="I16" s="1">
-        <v>-219.157000</v>
+        <v>-219.15700000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>30285.689093</v>
+        <v>30285.689093000001</v>
       </c>
       <c r="L16" s="1">
-        <v>8.412691</v>
+        <v>8.4126910000000006</v>
       </c>
       <c r="M16" s="1">
-        <v>1199.180000</v>
+        <v>1199.18</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.773000</v>
+        <v>-151.773</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>30295.991033</v>
+        <v>30295.991032999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.415553</v>
+        <v>8.4155529999999992</v>
       </c>
       <c r="R16" s="1">
-        <v>1207.000000</v>
+        <v>1207</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.310000</v>
+        <v>-129.31</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>30306.194698</v>
+        <v>30306.194697999999</v>
       </c>
       <c r="V16" s="1">
-        <v>8.418387</v>
+        <v>8.4183869999999992</v>
       </c>
       <c r="W16" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.230000</v>
+        <v>-108.23</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>30316.345325</v>
+        <v>30316.345324999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.421207</v>
+        <v>8.4212070000000008</v>
       </c>
       <c r="AB16" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.060100</v>
+        <v>-91.060100000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>30327.064896</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.424185</v>
+        <v>8.4241849999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>1226.050000</v>
+        <v>1226.05</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.424700</v>
+        <v>-86.424700000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>30337.285425</v>
+        <v>30337.285424999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.427024</v>
+        <v>8.4270239999999994</v>
       </c>
       <c r="AL16" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.670000</v>
+        <v>-89.67</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>30347.722243</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.429923</v>
+        <v>8.4299230000000005</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1240.920000</v>
+        <v>1240.92</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.538000</v>
+        <v>-101.538</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>30358.808325</v>
+        <v>30358.808325000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.433002</v>
+        <v>8.4330020000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.872000</v>
+        <v>-120.872</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>30370.163237</v>
+        <v>30370.163237000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.436156</v>
+        <v>8.4361560000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.422000</v>
+        <v>-138.422</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>30381.131799</v>
+        <v>30381.131798999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.439203</v>
+        <v>8.4392029999999991</v>
       </c>
       <c r="BF16" s="1">
-        <v>1299.050000</v>
+        <v>1299.05</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.697000</v>
+        <v>-220.697</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>30392.387512</v>
+        <v>30392.387512000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.442330</v>
+        <v>8.4423300000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.126000</v>
+        <v>-358.12599999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>30403.164058</v>
+        <v>30403.164057999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.445323</v>
+        <v>8.4453230000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1482.210000</v>
+        <v>1482.21</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-582.589000</v>
+        <v>-582.58900000000006</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>30413.999165</v>
+        <v>30413.999165000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.448333</v>
+        <v>8.4483329999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1613.780000</v>
+        <v>1613.78</v>
       </c>
       <c r="BV16" s="1">
-        <v>-836.805000</v>
+        <v>-836.80499999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>30425.115997</v>
+        <v>30425.115997000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.451421</v>
+        <v>8.4514209999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1766.820000</v>
+        <v>1766.82</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1113.200000</v>
+        <v>-1113.2</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>30437.170269</v>
+        <v>30437.170268999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.454770</v>
+        <v>8.4547699999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2186.660000</v>
+        <v>2186.66</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1784.760000</v>
+        <v>-1784.76</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>30265.121984</v>
+        <v>30265.121984000001</v>
       </c>
       <c r="B17" s="1">
-        <v>8.406978</v>
+        <v>8.4069780000000005</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.792000</v>
+        <v>-260.79199999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>30275.538963</v>
+        <v>30275.538962999999</v>
       </c>
       <c r="G17" s="1">
         <v>8.409872</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.010000</v>
+        <v>1172.01</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.619000</v>
+        <v>-218.619</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>30286.121604</v>
       </c>
       <c r="L17" s="1">
-        <v>8.412812</v>
+        <v>8.4128120000000006</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.080000</v>
+        <v>1199.08</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.569000</v>
+        <v>-151.56899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>30296.273719</v>
+        <v>30296.273719000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.415632</v>
+        <v>8.4156320000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1207.060000</v>
+        <v>1207.06</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.314000</v>
+        <v>-129.31399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>30306.474478</v>
       </c>
       <c r="V17" s="1">
-        <v>8.418465</v>
+        <v>8.4184649999999994</v>
       </c>
       <c r="W17" s="1">
-        <v>1214.150000</v>
+        <v>1214.1500000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.146000</v>
+        <v>-108.146</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>30316.690542</v>
@@ -4411,181 +4827,181 @@
         <v>8.421303</v>
       </c>
       <c r="AB17" s="1">
-        <v>1221.410000</v>
+        <v>1221.4100000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.964700</v>
+        <v>-90.964699999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>30327.408094</v>
+        <v>30327.408093999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.424280</v>
+        <v>8.4242799999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>1226.060000</v>
+        <v>1226.06</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.470500</v>
+        <v>-86.470500000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>30337.631632</v>
+        <v>30337.631632000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.427120</v>
+        <v>8.4271200000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.672900</v>
+        <v>-89.672899999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>30348.445907</v>
+        <v>30348.445907000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.430124</v>
+        <v>8.4301239999999993</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1240.920000</v>
+        <v>1240.92</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.537000</v>
+        <v>-101.53700000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>30359.533010</v>
+        <v>30359.533009999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.433204</v>
+        <v>8.4332039999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.893000</v>
+        <v>-120.893</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>30370.521845</v>
+        <v>30370.521844999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.436256</v>
+        <v>8.4362560000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.432000</v>
+        <v>-138.43199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>30381.498310</v>
+        <v>30381.498309999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.439305</v>
+        <v>8.4393049999999992</v>
       </c>
       <c r="BF17" s="1">
-        <v>1299.040000</v>
+        <v>1299.04</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.648000</v>
+        <v>-220.648</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>30392.764935</v>
+        <v>30392.764934999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.442435</v>
+        <v>8.4424349999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.159000</v>
+        <v>-358.15899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>30403.857177</v>
+        <v>30403.857177000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.445516</v>
+        <v>8.4455159999999996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1482.240000</v>
+        <v>1482.24</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-582.641000</v>
+        <v>-582.64099999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>30414.117707</v>
+        <v>30414.117707000001</v>
       </c>
       <c r="BT17" s="1">
         <v>8.448366</v>
       </c>
       <c r="BU17" s="1">
-        <v>1613.650000</v>
+        <v>1613.65</v>
       </c>
       <c r="BV17" s="1">
-        <v>-836.616000</v>
+        <v>-836.61599999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>30425.251406</v>
+        <v>30425.251405999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.451459</v>
+        <v>8.4514589999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1766.830000</v>
+        <v>1766.83</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1113.330000</v>
+        <v>-1113.33</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>30437.688094</v>
+        <v>30437.688094000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.454913</v>
+        <v>8.4549129999999995</v>
       </c>
       <c r="CE17" s="1">
-        <v>2188.100000</v>
+        <v>2188.1</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1786.630000</v>
+        <v>-1786.63</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>30265.541104</v>
       </c>
@@ -4593,1463 +5009,1463 @@
         <v>8.407095</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.740000</v>
+        <v>1149.74</v>
       </c>
       <c r="D18" s="1">
-        <v>-260.827000</v>
+        <v>-260.827</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>30275.968498</v>
+        <v>30275.968497999998</v>
       </c>
       <c r="G18" s="1">
-        <v>8.409991</v>
+        <v>8.4099909999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.160000</v>
+        <v>1171.1600000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-218.895000</v>
+        <v>-218.89500000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>30286.402837</v>
+        <v>30286.402837000001</v>
       </c>
       <c r="L18" s="1">
-        <v>8.412890</v>
+        <v>8.4128900000000009</v>
       </c>
       <c r="M18" s="1">
-        <v>1199.040000</v>
+        <v>1199.04</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.886000</v>
+        <v>-151.886</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>30296.620950</v>
+        <v>30296.62095</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.415728</v>
+        <v>8.4157279999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.339000</v>
+        <v>-129.339</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>30306.809241</v>
+        <v>30306.809240999999</v>
       </c>
       <c r="V18" s="1">
-        <v>8.418558</v>
+        <v>8.4185580000000009</v>
       </c>
       <c r="W18" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.178000</v>
+        <v>-108.178</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>30317.040220</v>
+        <v>30317.040219999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.421400</v>
+        <v>8.4214000000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.985800</v>
+        <v>-90.985799999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>30328.094589</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.424471</v>
+        <v>8.4244710000000005</v>
       </c>
       <c r="AG18" s="1">
-        <v>1226.050000</v>
+        <v>1226.05</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.456300</v>
+        <v>-86.456299999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>30338.327552</v>
+        <v>30338.327551999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.427313</v>
+        <v>8.4273129999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1233.060000</v>
+        <v>1233.06</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.675900</v>
+        <v>-89.675899999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>30348.844193</v>
+        <v>30348.844193000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.430234</v>
+        <v>8.4302340000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1240.920000</v>
+        <v>1240.92</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.526000</v>
+        <v>-101.526</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>30359.917903</v>
+        <v>30359.917903000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.433311</v>
+        <v>8.4333109999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.887000</v>
+        <v>-120.887</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>30370.880452</v>
+        <v>30370.880452000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>8.436356</v>
       </c>
       <c r="BA18" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.386000</v>
+        <v>-138.386</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>30382.169894</v>
+        <v>30382.169893999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.439492</v>
+        <v>8.4394919999999995</v>
       </c>
       <c r="BF18" s="1">
-        <v>1299.060000</v>
+        <v>1299.06</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.648000</v>
+        <v>-220.648</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>30393.211336</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.442559</v>
+        <v>8.4425589999999993</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.163000</v>
+        <v>-358.16300000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>30403.981001</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.445550</v>
+        <v>8.4455500000000008</v>
       </c>
       <c r="BP18" s="1">
-        <v>1482.260000</v>
+        <v>1482.26</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-582.587000</v>
+        <v>-582.58699999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>30414.531403</v>
+        <v>30414.531403000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.448481</v>
+        <v>8.4484809999999992</v>
       </c>
       <c r="BU18" s="1">
-        <v>1613.760000</v>
+        <v>1613.76</v>
       </c>
       <c r="BV18" s="1">
-        <v>-836.484000</v>
+        <v>-836.48400000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>30425.663617</v>
+        <v>30425.663616999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.451573</v>
+        <v>8.4515729999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1766.700000</v>
+        <v>1766.7</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1113.140000</v>
+        <v>-1113.1400000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>30438.228235</v>
+        <v>30438.228234999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.455063</v>
+        <v>8.4550630000000009</v>
       </c>
       <c r="CE18" s="1">
-        <v>2187.680000</v>
+        <v>2187.6799999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1783.460000</v>
+        <v>-1783.46</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>30265.819711</v>
       </c>
       <c r="B19" s="1">
-        <v>8.407172</v>
+        <v>8.4071719999999992</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.780000</v>
+        <v>1149.78</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.446000</v>
+        <v>-260.44600000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>30276.226419</v>
+        <v>30276.226418999999</v>
       </c>
       <c r="G19" s="1">
-        <v>8.410063</v>
+        <v>8.4100629999999992</v>
       </c>
       <c r="H19" s="1">
-        <v>1171.390000</v>
+        <v>1171.3900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.910000</v>
+        <v>-218.91</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>30286.747061</v>
+        <v>30286.747060999998</v>
       </c>
       <c r="L19" s="1">
-        <v>8.412985</v>
+        <v>8.4129850000000008</v>
       </c>
       <c r="M19" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.848000</v>
+        <v>-151.84800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>30296.971095</v>
+        <v>30296.971095000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.415825</v>
+        <v>8.4158249999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.352000</v>
+        <v>-129.352</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>30307.161401</v>
+        <v>30307.161401000001</v>
       </c>
       <c r="V19" s="1">
-        <v>8.418656</v>
+        <v>8.4186560000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>1214.180000</v>
+        <v>1214.18</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.159000</v>
+        <v>-108.15900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>30317.736634</v>
+        <v>30317.736634000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.421594</v>
+        <v>8.4215940000000007</v>
       </c>
       <c r="AB19" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.997100</v>
+        <v>-90.997100000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>30328.438809</v>
+        <v>30328.438808999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.424566</v>
+        <v>8.4245660000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>1226.050000</v>
+        <v>1226.05</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.418000</v>
+        <v>-86.418000000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>30338.677199</v>
+        <v>30338.677199000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.427410</v>
+        <v>8.4274100000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.699900</v>
+        <v>-89.6999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>30349.195464</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.430332</v>
+        <v>8.4303319999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1240.920000</v>
+        <v>1240.92</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.541000</v>
+        <v>-101.541</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>30360.594418</v>
+        <v>30360.594418000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.433498</v>
+        <v>8.4334980000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.918000</v>
+        <v>-120.91800000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>30371.547075</v>
+        <v>30371.547074999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.436541</v>
+        <v>8.4365410000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.406000</v>
+        <v>-138.40600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>30382.582069</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.439606</v>
+        <v>8.4396059999999995</v>
       </c>
       <c r="BF19" s="1">
-        <v>1299.030000</v>
+        <v>1299.03</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.687000</v>
+        <v>-220.68700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>30393.524326</v>
+        <v>30393.524325999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.442646</v>
+        <v>8.4426459999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.122000</v>
+        <v>-358.12200000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>30404.407530</v>
+        <v>30404.40753</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.445669</v>
+        <v>8.4456690000000005</v>
       </c>
       <c r="BP19" s="1">
-        <v>1482.220000</v>
+        <v>1482.22</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-582.647000</v>
+        <v>-582.64700000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>30414.961930</v>
+        <v>30414.961930000001</v>
       </c>
       <c r="BT19" s="1">
         <v>8.448601</v>
       </c>
       <c r="BU19" s="1">
-        <v>1613.780000</v>
+        <v>1613.78</v>
       </c>
       <c r="BV19" s="1">
-        <v>-836.272000</v>
+        <v>-836.27200000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>30426.121388</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.451700</v>
+        <v>8.4517000000000007</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1766.830000</v>
+        <v>1766.83</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1113.330000</v>
+        <v>-1113.33</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>30438.772385</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.455215</v>
+        <v>8.4552150000000008</v>
       </c>
       <c r="CE19" s="1">
-        <v>2187.000000</v>
+        <v>2187</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1785.640000</v>
+        <v>-1785.64</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>30266.163583</v>
+        <v>30266.163583000001</v>
       </c>
       <c r="B20" s="1">
-        <v>8.407268</v>
+        <v>8.4072680000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.690000</v>
+        <v>1149.69</v>
       </c>
       <c r="D20" s="1">
-        <v>-260.976000</v>
+        <v>-260.976</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>30276.595479</v>
       </c>
       <c r="G20" s="1">
-        <v>8.410165</v>
+        <v>8.4101649999999992</v>
       </c>
       <c r="H20" s="1">
-        <v>1171.640000</v>
+        <v>1171.6400000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.258000</v>
+        <v>-218.25800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>30287.095287</v>
       </c>
       <c r="L20" s="1">
-        <v>8.413082</v>
+        <v>8.4130819999999993</v>
       </c>
       <c r="M20" s="1">
-        <v>1199.050000</v>
+        <v>1199.05</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.833000</v>
+        <v>-151.833</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>30297.664997</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.416018</v>
+        <v>8.4160179999999993</v>
       </c>
       <c r="R20" s="1">
-        <v>1206.950000</v>
+        <v>1206.95</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.290000</v>
+        <v>-129.29</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>30307.848993</v>
       </c>
       <c r="V20" s="1">
-        <v>8.418847</v>
+        <v>8.4188469999999995</v>
       </c>
       <c r="W20" s="1">
-        <v>1214.080000</v>
+        <v>1214.08</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.177000</v>
+        <v>-108.17700000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>30318.083841</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.421690</v>
+        <v>8.4216899999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.881200</v>
+        <v>-90.881200000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>30328.782508</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.424662</v>
+        <v>8.4246619999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>1226.090000</v>
+        <v>1226.0899999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.427100</v>
+        <v>-86.427099999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>30339.024894</v>
+        <v>30339.024893999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.427507</v>
+        <v>8.4275070000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.678300</v>
+        <v>-89.678299999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>30349.861488</v>
+        <v>30349.861487999999</v>
       </c>
       <c r="AP20" s="1">
         <v>8.430517</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1240.930000</v>
+        <v>1240.93</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.537000</v>
+        <v>-101.53700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>30361.045282</v>
+        <v>30361.045281999999</v>
       </c>
       <c r="AU20" s="1">
         <v>8.433624</v>
       </c>
       <c r="AV20" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.883000</v>
+        <v>-120.883</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>30371.990499</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.436664</v>
+        <v>8.4366640000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.411000</v>
+        <v>-138.411</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>30382.966964</v>
+        <v>30382.966963999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.439713</v>
+        <v>8.4397129999999994</v>
       </c>
       <c r="BF20" s="1">
-        <v>1299.100000</v>
+        <v>1299.0999999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.704000</v>
+        <v>-220.70400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>30393.914166</v>
+        <v>30393.914165999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.442754</v>
+        <v>8.4427540000000008</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.092000</v>
+        <v>-358.09199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>30404.803340</v>
+        <v>30404.803339999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.445779</v>
+        <v>8.4457789999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1482.230000</v>
+        <v>1482.23</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-582.635000</v>
+        <v>-582.63499999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>30415.393417</v>
+        <v>30415.393416999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.448720</v>
+        <v>8.4487199999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1614.070000</v>
+        <v>1614.07</v>
       </c>
       <c r="BV20" s="1">
-        <v>-836.181000</v>
+        <v>-836.18100000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>30426.568320</v>
+        <v>30426.568319999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.451825</v>
+        <v>8.4518249999999995</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1766.860000</v>
+        <v>1766.86</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1113.220000</v>
+        <v>-1113.22</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>30439.311530</v>
+        <v>30439.311529999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.455364</v>
+        <v>8.4553639999999994</v>
       </c>
       <c r="CE20" s="1">
-        <v>2189.170000</v>
+        <v>2189.17</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1785.140000</v>
+        <v>-1785.14</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>30266.503343</v>
       </c>
       <c r="B21" s="1">
-        <v>8.407362</v>
+        <v>8.4073619999999991</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.710000</v>
+        <v>1149.71</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.990000</v>
+        <v>-260.99</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>30277.283889</v>
+        <v>30277.283888999998</v>
       </c>
       <c r="G21" s="1">
-        <v>8.410357</v>
+        <v>8.4103569999999994</v>
       </c>
       <c r="H21" s="1">
-        <v>1171.300000</v>
+        <v>1171.3</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.943000</v>
+        <v>-218.94300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>30287.789155</v>
+        <v>30287.789154999999</v>
       </c>
       <c r="L21" s="1">
-        <v>8.413275</v>
+        <v>8.4132750000000005</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.160000</v>
+        <v>1199.1600000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.010000</v>
+        <v>-152.01</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>30298.016668</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.416116</v>
+        <v>8.4161160000000006</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.281000</v>
+        <v>-129.28100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>30308.193575</v>
+        <v>30308.193575000001</v>
       </c>
       <c r="V21" s="1">
-        <v>8.418943</v>
+        <v>8.4189430000000005</v>
       </c>
       <c r="W21" s="1">
-        <v>1214.150000</v>
+        <v>1214.1500000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.187000</v>
+        <v>-108.187</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>30318.435466</v>
+        <v>30318.435465999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.421788</v>
+        <v>8.4217879999999994</v>
       </c>
       <c r="AB21" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.983400</v>
+        <v>-90.983400000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>30329.429787</v>
+        <v>30329.429787000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.424842</v>
+        <v>8.4248419999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1226.050000</v>
+        <v>1226.05</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.430300</v>
+        <v>-86.430300000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>30339.679703</v>
+        <v>30339.679703000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.427689</v>
+        <v>8.4276890000000009</v>
       </c>
       <c r="AL21" s="1">
-        <v>1233.100000</v>
+        <v>1233.0999999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.692400</v>
+        <v>-89.692400000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>30350.302927</v>
+        <v>30350.302927000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.430640</v>
+        <v>8.4306400000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1240.930000</v>
+        <v>1240.93</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.543000</v>
+        <v>-101.54300000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>30361.411023</v>
+        <v>30361.411023000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.433725</v>
+        <v>8.4337250000000008</v>
       </c>
       <c r="AV21" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.901000</v>
+        <v>-120.901</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>30372.350596</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.436764</v>
+        <v>8.4367640000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.410000</v>
+        <v>-138.41</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>30383.329542</v>
+        <v>30383.329541999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.439814</v>
+        <v>8.4398140000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1299.020000</v>
+        <v>1299.02</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.728000</v>
+        <v>-220.72800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>30394.329846</v>
+        <v>30394.329846000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>8.442869</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.132000</v>
+        <v>-358.13200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>30405.226423</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.445896</v>
+        <v>8.4458959999999994</v>
       </c>
       <c r="BP21" s="1">
-        <v>1482.220000</v>
+        <v>1482.22</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-582.617000</v>
+        <v>-582.61699999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>30415.802121</v>
+        <v>30415.802121000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.448834</v>
+        <v>8.4488339999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1614.210000</v>
+        <v>1614.21</v>
       </c>
       <c r="BV21" s="1">
-        <v>-836.082000</v>
+        <v>-836.08199999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>30426.992394</v>
+        <v>30426.992394000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.451942</v>
+        <v>8.4519420000000007</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1766.960000</v>
+        <v>1766.96</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1113.240000</v>
+        <v>-1113.24</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>30439.849198</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.455514</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="CE21" s="1">
-        <v>2187.160000</v>
+        <v>2187.16</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1783.910000</v>
+        <v>-1783.91</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>30267.187860</v>
+        <v>30267.187859999998</v>
       </c>
       <c r="B22" s="1">
-        <v>8.407552</v>
+        <v>8.4075520000000008</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.880000</v>
+        <v>1149.8800000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.865000</v>
+        <v>-260.86500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>30277.628646</v>
+        <v>30277.628646000001</v>
       </c>
       <c r="G22" s="1">
-        <v>8.410452</v>
+        <v>8.4104519999999994</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.070000</v>
+        <v>1172.07</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.516000</v>
+        <v>-218.51599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>30288.139361</v>
+        <v>30288.139361000001</v>
       </c>
       <c r="L22" s="1">
-        <v>8.413372</v>
+        <v>8.4133720000000007</v>
       </c>
       <c r="M22" s="1">
-        <v>1199.260000</v>
+        <v>1199.26</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.656000</v>
+        <v>-151.65600000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>30298.366629</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.416213</v>
+        <v>8.4162130000000008</v>
       </c>
       <c r="R22" s="1">
-        <v>1207.040000</v>
+        <v>1207.04</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.288000</v>
+        <v>-129.28800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>30308.538295</v>
+        <v>30308.538294999998</v>
       </c>
       <c r="V22" s="1">
-        <v>8.419038</v>
+        <v>8.4190380000000005</v>
       </c>
       <c r="W22" s="1">
-        <v>1214.010000</v>
+        <v>1214.01</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.390000</v>
+        <v>-108.39</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>30319.100137</v>
+        <v>30319.100137000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.421972</v>
+        <v>8.4219720000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1221.520000</v>
+        <v>1221.52</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.892900</v>
+        <v>-90.892899999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>30329.813209</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.424948</v>
+        <v>8.4249480000000005</v>
       </c>
       <c r="AG22" s="1">
-        <v>1226.000000</v>
+        <v>1226</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.409000</v>
+        <v>-86.409000000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>30340.069966</v>
+        <v>30340.069965999999</v>
       </c>
       <c r="AK22" s="1">
         <v>8.427797</v>
       </c>
       <c r="AL22" s="1">
-        <v>1233.030000</v>
+        <v>1233.03</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.684600</v>
+        <v>-89.684600000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>30350.662559</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.430740</v>
+        <v>8.4307400000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1240.910000</v>
+        <v>1240.9100000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.559000</v>
+        <v>-101.559</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>30361.774441</v>
+        <v>30361.774441000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.433826</v>
+        <v>8.4338259999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.894000</v>
+        <v>-120.89400000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>30372.706756</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.436863</v>
+        <v>8.4368630000000007</v>
       </c>
       <c r="BA22" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.409000</v>
+        <v>-138.40899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>30383.750644</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.439931</v>
+        <v>8.4399309999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1299.030000</v>
+        <v>1299.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.672000</v>
+        <v>-220.672</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>30394.665136</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.442963</v>
+        <v>8.4429630000000007</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.141000</v>
+        <v>-358.14100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>30405.621735</v>
+        <v>30405.621735000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.446006</v>
+        <v>8.4460060000000006</v>
       </c>
       <c r="BP22" s="1">
-        <v>1482.230000</v>
+        <v>1482.23</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-582.596000</v>
+        <v>-582.596</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>30416.235625</v>
+        <v>30416.235625000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.448954</v>
+        <v>8.4489540000000005</v>
       </c>
       <c r="BU22" s="1">
-        <v>1614.330000</v>
+        <v>1614.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-836.005000</v>
+        <v>-836.005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>30427.412971</v>
+        <v>30427.412971000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.452059</v>
+        <v>8.4520590000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1766.890000</v>
+        <v>1766.89</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1113.140000</v>
+        <v>-1113.1400000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>30440.391288</v>
+        <v>30440.391287999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.455664</v>
+        <v>8.4556640000000005</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.270000</v>
+        <v>2188.27</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1786.740000</v>
+        <v>-1786.74</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>30267.530557</v>
+        <v>30267.530556999998</v>
       </c>
       <c r="B23" s="1">
-        <v>8.407647</v>
+        <v>8.4076470000000008</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.630000</v>
+        <v>1149.6300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.653000</v>
+        <v>-260.65300000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30277.974320</v>
+        <v>30277.974320000001</v>
       </c>
       <c r="G23" s="1">
-        <v>8.410548</v>
+        <v>8.4105480000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>1171.220000</v>
+        <v>1171.22</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.653000</v>
+        <v>-218.65299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>30288.485041</v>
       </c>
       <c r="L23" s="1">
-        <v>8.413468</v>
+        <v>8.4134679999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1199.370000</v>
+        <v>1199.3699999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.951000</v>
+        <v>-151.95099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>30299.028005</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.416397</v>
+        <v>8.4163969999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1207.020000</v>
+        <v>1207.02</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.408000</v>
+        <v>-129.40799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>30309.199958</v>
+        <v>30309.199958000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.419222</v>
+        <v>8.4192219999999995</v>
       </c>
       <c r="W23" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.343000</v>
+        <v>-108.343</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>30319.481032</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.422078</v>
+        <v>8.4220780000000008</v>
       </c>
       <c r="AB23" s="1">
-        <v>1221.570000</v>
+        <v>1221.57</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.919000</v>
+        <v>-90.918999999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>30330.161388</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.425045</v>
+        <v>8.4250450000000008</v>
       </c>
       <c r="AG23" s="1">
-        <v>1226.060000</v>
+        <v>1226.06</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.469600</v>
+        <v>-86.4696</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>30340.422125</v>
+        <v>30340.422125000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.427895</v>
+        <v>8.4278949999999995</v>
       </c>
       <c r="AL23" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.671700</v>
+        <v>-89.671700000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>30351.023152</v>
+        <v>30351.023152000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.430840</v>
+        <v>8.4308399999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1240.950000</v>
+        <v>1240.95</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.538000</v>
+        <v>-101.538</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>30362.195041</v>
+        <v>30362.195040999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.433943</v>
+        <v>8.4339429999999993</v>
       </c>
       <c r="AV23" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.887000</v>
+        <v>-120.887</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>30373.139233</v>
+        <v>30373.139233000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.436983</v>
+        <v>8.4369829999999997</v>
       </c>
       <c r="BA23" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.400000</v>
+        <v>-138.4</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>30384.051742</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.440014</v>
+        <v>8.4400139999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1299.070000</v>
+        <v>1299.07</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.688000</v>
+        <v>-220.68799999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>30395.039126</v>
@@ -6058,846 +6474,847 @@
         <v>8.443066</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.149000</v>
+        <v>-358.149</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>30406.038406</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.446122</v>
+        <v>8.4461220000000008</v>
       </c>
       <c r="BP23" s="1">
-        <v>1482.230000</v>
+        <v>1482.23</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-582.604000</v>
+        <v>-582.60400000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>30416.659242</v>
+        <v>30416.659242000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.449072</v>
+        <v>8.4490719999999992</v>
       </c>
       <c r="BU23" s="1">
-        <v>1614.560000</v>
+        <v>1614.56</v>
       </c>
       <c r="BV23" s="1">
-        <v>-836.216000</v>
+        <v>-836.21600000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>30427.837050</v>
+        <v>30427.837049999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.452177</v>
+        <v>8.4521770000000007</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1766.690000</v>
+        <v>1766.69</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1113.230000</v>
+        <v>-1113.23</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>30440.928984</v>
+        <v>30440.928983999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.455814</v>
+        <v>8.4558140000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2188.600000</v>
+        <v>2188.6</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1784.040000</v>
+        <v>-1784.04</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>30267.871837</v>
+        <v>30267.871836999999</v>
       </c>
       <c r="B24" s="1">
-        <v>8.407742</v>
+        <v>8.4077420000000007</v>
       </c>
       <c r="C24" s="1">
-        <v>1150.040000</v>
+        <v>1150.04</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.695000</v>
+        <v>-260.69499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>30278.616640</v>
+        <v>30278.61664</v>
       </c>
       <c r="G24" s="1">
-        <v>8.410727</v>
+        <v>8.4107269999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>1171.390000</v>
+        <v>1171.3900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.241000</v>
+        <v>-219.24100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>30289.139760</v>
+        <v>30289.139759999998</v>
       </c>
       <c r="L24" s="1">
-        <v>8.413650</v>
+        <v>8.4136500000000005</v>
       </c>
       <c r="M24" s="1">
-        <v>1199.110000</v>
+        <v>1199.1099999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.079000</v>
+        <v>-152.07900000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>30299.411922</v>
+        <v>30299.411921999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.416503</v>
+        <v>8.4165030000000005</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.970000</v>
+        <v>1206.97</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.423000</v>
+        <v>-129.423</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>30309.573947</v>
+        <v>30309.573947000001</v>
       </c>
       <c r="V24" s="1">
-        <v>8.419326</v>
+        <v>8.4193259999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1214.110000</v>
+        <v>1214.1099999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.241000</v>
+        <v>-108.241</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>30319.833192</v>
+        <v>30319.833191999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.422176</v>
+        <v>8.4221760000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.750700</v>
+        <v>-90.750699999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>30330.502634</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.425140</v>
+        <v>8.4251400000000007</v>
       </c>
       <c r="AG24" s="1">
-        <v>1226.020000</v>
+        <v>1226.02</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.449300</v>
+        <v>-86.449299999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>30340.768332</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.427991</v>
+        <v>8.4279910000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>1233.050000</v>
+        <v>1233.05</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.665400</v>
+        <v>-89.665400000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>30351.456127</v>
+        <v>30351.456127000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.430960</v>
+        <v>8.4309600000000007</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1240.930000</v>
+        <v>1240.93</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.562000</v>
+        <v>-101.562</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>30362.502031</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.434028</v>
+        <v>8.4340279999999996</v>
       </c>
       <c r="AV24" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.888000</v>
+        <v>-120.88800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>30373.426734</v>
+        <v>30373.426734000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.437063</v>
+        <v>8.4370630000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.373000</v>
+        <v>-138.37299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>30384.413795</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.440115</v>
+        <v>8.4401150000000005</v>
       </c>
       <c r="BF24" s="1">
-        <v>1299.060000</v>
+        <v>1299.06</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.666000</v>
+        <v>-220.666</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>30395.423494</v>
+        <v>30395.423493999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.443173</v>
+        <v>8.4431729999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.130000</v>
+        <v>-358.13</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>30406.439638</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.446233</v>
+        <v>8.4462329999999994</v>
       </c>
       <c r="BP24" s="1">
-        <v>1482.280000</v>
+        <v>1482.28</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-582.619000</v>
+        <v>-582.61900000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>30417.087255</v>
+        <v>30417.087254999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.449191</v>
+        <v>8.4491910000000008</v>
       </c>
       <c r="BU24" s="1">
-        <v>1614.710000</v>
+        <v>1614.71</v>
       </c>
       <c r="BV24" s="1">
-        <v>-836.433000</v>
+        <v>-836.43299999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>30428.255010</v>
+        <v>30428.255010000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.452293</v>
+        <v>8.4522929999999992</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1766.940000</v>
+        <v>1766.94</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1113.050000</v>
+        <v>-1113.05</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>30441.466615</v>
+        <v>30441.466615000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.455963</v>
+        <v>8.4559630000000006</v>
       </c>
       <c r="CE24" s="1">
-        <v>2186.780000</v>
+        <v>2186.7800000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1785.480000</v>
+        <v>-1785.48</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>30268.531981</v>
       </c>
       <c r="B25" s="1">
-        <v>8.407926</v>
+        <v>8.4079259999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.360000</v>
+        <v>1149.3599999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.700000</v>
+        <v>-260.7</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>30279.006495</v>
+        <v>30279.006495000001</v>
       </c>
       <c r="G25" s="1">
-        <v>8.410835</v>
+        <v>8.4108350000000005</v>
       </c>
       <c r="H25" s="1">
-        <v>1171.890000</v>
+        <v>1171.8900000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.004000</v>
+        <v>-219.00399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>30289.520721</v>
+        <v>30289.520721000001</v>
       </c>
       <c r="L25" s="1">
-        <v>8.413756</v>
+        <v>8.4137559999999993</v>
       </c>
       <c r="M25" s="1">
-        <v>1199.070000</v>
+        <v>1199.07</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.752000</v>
+        <v>-151.75200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>30299.761117</v>
+        <v>30299.761116999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.416600</v>
+        <v>8.4166000000000007</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.356000</v>
+        <v>-129.35599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>30309.920646</v>
+        <v>30309.920645999999</v>
       </c>
       <c r="V25" s="1">
-        <v>8.419422</v>
+        <v>8.4194220000000008</v>
       </c>
       <c r="W25" s="1">
-        <v>1214.200000</v>
+        <v>1214.2</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.174000</v>
+        <v>-108.17400000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>30320.177913</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.422272</v>
+        <v>8.4222719999999995</v>
       </c>
       <c r="AB25" s="1">
-        <v>1221.500000</v>
+        <v>1221.5</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.813000</v>
+        <v>-90.813000000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>30330.940607</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.425261</v>
+        <v>8.4252610000000008</v>
       </c>
       <c r="AG25" s="1">
-        <v>1226.070000</v>
+        <v>1226.07</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.495100</v>
+        <v>-86.495099999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>30341.200348</v>
+        <v>30341.200347999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.428111</v>
+        <v>8.4281109999999995</v>
       </c>
       <c r="AL25" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.679600</v>
+        <v>-89.679599999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>30351.742815</v>
+        <v>30351.742815000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.431040</v>
+        <v>8.4310399999999994</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.557000</v>
+        <v>-101.557</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>30362.867583</v>
+        <v>30362.867582999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.434130</v>
+        <v>8.4341299999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.880000</v>
+        <v>-120.88</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>30373.786049</v>
+        <v>30373.786048999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>8.437163</v>
       </c>
       <c r="BA25" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.417000</v>
+        <v>-138.417</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>30384.774423</v>
+        <v>30384.774422999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.440215</v>
+        <v>8.4402150000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1299.080000</v>
+        <v>1299.08</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.703000</v>
+        <v>-220.703</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>30396.188819</v>
+        <v>30396.188818999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.443386</v>
+        <v>8.4433860000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.300000</v>
+        <v>1368.3</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.115000</v>
+        <v>-358.11500000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>30406.863718</v>
+        <v>30406.863718000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.446351</v>
+        <v>8.4463509999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1482.180000</v>
+        <v>1482.18</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-582.660000</v>
+        <v>-582.66</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>30417.504887</v>
+        <v>30417.504886999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.449307</v>
+        <v>8.4493069999999992</v>
       </c>
       <c r="BU25" s="1">
-        <v>1614.810000</v>
+        <v>1614.81</v>
       </c>
       <c r="BV25" s="1">
-        <v>-836.705000</v>
+        <v>-836.70500000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>30428.712024</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.452420</v>
+        <v>8.45242</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1766.760000</v>
+        <v>1766.76</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1113.250000</v>
+        <v>-1113.25</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>30442.011255</v>
+        <v>30442.011255000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.456114</v>
+        <v>8.4561139999999995</v>
       </c>
       <c r="CE25" s="1">
-        <v>2189.170000</v>
+        <v>2189.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1786.170000</v>
+        <v>-1786.17</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>30268.898027</v>
+        <v>30268.898026999999</v>
       </c>
       <c r="B26" s="1">
-        <v>8.408027</v>
+        <v>8.4080270000000006</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.480000</v>
+        <v>1149.48</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.610000</v>
+        <v>-260.61</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>30279.353231</v>
+        <v>30279.353231000001</v>
       </c>
       <c r="G26" s="1">
-        <v>8.410931</v>
+        <v>8.4109309999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>1171.300000</v>
+        <v>1171.3</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.366000</v>
+        <v>-218.36600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>30289.864913</v>
+        <v>30289.864913000001</v>
       </c>
       <c r="L26" s="1">
-        <v>8.413851</v>
+        <v>8.4138509999999993</v>
       </c>
       <c r="M26" s="1">
-        <v>1199.230000</v>
+        <v>1199.23</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.964000</v>
+        <v>-151.964</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>30300.108786</v>
+        <v>30300.108786000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.416697</v>
+        <v>8.4166969999999992</v>
       </c>
       <c r="R26" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.351000</v>
+        <v>-129.351</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>30310.343269</v>
+        <v>30310.343269000001</v>
       </c>
       <c r="V26" s="1">
-        <v>8.419540</v>
+        <v>8.4195399999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>1214.070000</v>
+        <v>1214.07</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.203000</v>
+        <v>-108.203</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>30320.593077</v>
+        <v>30320.593077000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.422387</v>
+        <v>8.4223870000000005</v>
       </c>
       <c r="AB26" s="1">
-        <v>1221.460000</v>
+        <v>1221.46</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.774900</v>
+        <v>-90.774900000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>30331.212905</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.425337</v>
+        <v>8.4253370000000007</v>
       </c>
       <c r="AG26" s="1">
-        <v>1226.070000</v>
+        <v>1226.07</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.424100</v>
+        <v>-86.424099999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>30341.477611</v>
+        <v>30341.477610999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.428188</v>
+        <v>8.4281880000000005</v>
       </c>
       <c r="AL26" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.678000</v>
+        <v>-89.677999999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>30352.102413</v>
+        <v>30352.102413000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.431140</v>
+        <v>8.4311399999999992</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.553000</v>
+        <v>-101.553</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>30363.235615</v>
+        <v>30363.235615000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.434232</v>
+        <v>8.4342319999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.900000</v>
+        <v>-120.9</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>30374.143632</v>
+        <v>30374.143631999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.437262</v>
+        <v>8.4372620000000005</v>
       </c>
       <c r="BA26" s="1">
-        <v>1259.250000</v>
+        <v>1259.25</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.393000</v>
+        <v>-138.393</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>30385.497555</v>
+        <v>30385.497555000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.440416</v>
+        <v>8.4404160000000008</v>
       </c>
       <c r="BF26" s="1">
-        <v>1299.050000</v>
+        <v>1299.05</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.667000</v>
+        <v>-220.667</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>30396.564787</v>
+        <v>30396.564786999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.443490</v>
+        <v>8.4434900000000006</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.102000</v>
+        <v>-358.10199999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>30407.258564</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.446461</v>
+        <v>8.4464609999999993</v>
       </c>
       <c r="BP26" s="1">
-        <v>1482.290000</v>
+        <v>1482.29</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-582.621000</v>
+        <v>-582.62099999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>30417.930454</v>
+        <v>30417.930454000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.449425</v>
+        <v>8.4494249999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1614.760000</v>
+        <v>1614.76</v>
       </c>
       <c r="BV26" s="1">
-        <v>-836.874000</v>
+        <v>-836.87400000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>30429.476328</v>
+        <v>30429.476328000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.452632</v>
+        <v>8.4526319999999995</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1766.790000</v>
+        <v>1766.79</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1113.210000</v>
+        <v>-1113.21</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>30442.884182</v>
+        <v>30442.884182000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.456357</v>
+        <v>8.4563570000000006</v>
       </c>
       <c r="CE26" s="1">
-        <v>2186.820000</v>
+        <v>2186.8200000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1786.120000</v>
+        <v>-1786.12</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>